--- a/PagineHtml/6-Rotoli industriali grandi carta per pulizia officina | large industrial cleaning paper rolls bulk supplier manufacturer.xlsx
+++ b/PagineHtml/6-Rotoli industriali grandi carta per pulizia officina | large industrial cleaning paper rolls bulk supplier manufacturer.xlsx
@@ -540,22 +540,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Wholesale Efficient Cleaning Wiping Workshop Shop Roll Jumbo Towel Industrial Wipes</t>
+          <t>100% all'ingrosso dell'oem PP del panno premio di grandi dimensioni del rotolo perforato per fusione del tergicristallo industriale resistente che pulisce l'olio con il MOQ basso</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>12,80-13,47 €</t>
+          <t>9,53-10,39 €</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Ordine minimo: 500 parti</t>
+          <t>Ordine minimo: 50 rulli</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Huzhou Auline Sanitary Material Co., Ltd.</t>
+          <t>Suzhou Minghuiyuan Technology Co., Ltd.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -563,44 +563,40 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>KILINE 30% sconto fabbrica all'ingrosso usa e getta Micro fibra grande panno per pulire olio industriale cucina senza polvere</t>
+          <t>Wholesale Efficient Cleaning Wiping Workshop Shop Roll Jumbo Towel Industrial Wipes</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1,04 €</t>
+          <t>12,80-13,47 €</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Ordine minimo: 10 parti</t>
+          <t>Ordine minimo: 500 parti</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Shanghai Kiline Paper Co., Ltd.</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
+          <t>Huzhou Auline Sanitary Material Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>KILINE 30% Discount Wholesale Large Roll Dust-Free Paper Industrial Multi-Function Wiping Machine Workshop Cleaning Dust Oil</t>
+          <t>KILINE 30% sconto fabbrica all'ingrosso usa e getta Micro fibra grande panno per pulire olio industriale cucina senza polvere</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0,0867-0,4851 €</t>
+          <t>1,04 €</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Ordine minimo: 10 rulli</t>
+          <t>Ordine minimo: 10 parti</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -617,25 +613,29 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>100% all'ingrosso dell'oem PP del panno premio di grandi dimensioni del rotolo perforato per fusione del tergicristallo industriale resistente che pulisce l'olio con il MOQ basso</t>
+          <t>KILINE 30% Discount Wholesale Large Roll Dust-Free Paper Industrial Multi-Function Wiping Machine Workshop Cleaning Dust Oil</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>9,53-10,39 €</t>
+          <t>0,0867-0,4851 €</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Ordine minimo: 50 rulli</t>
+          <t>Ordine minimo: 10 rulli</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Suzhou Minghuiyuan Technology Co., Ltd.</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
+          <t>Shanghai Kiline Paper Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
